--- a/RNA_paper_history.xlsx
+++ b/RNA_paper_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper_implement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A2E0425-01A8-46B3-BA3C-D66BC91C8882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658470C0-4FCA-4EF2-AE37-CA7AEF7F133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B24BBBC-C22C-447C-964F-2A45BD27E6F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B24BBBC-C22C-447C-964F-2A45BD27E6F0}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -546,153 +546,150 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
-        <v>43895</v>
+        <v>43999</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>43398</v>
+        <v>43895</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
-        <v>43132</v>
+        <v>43753</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
-        <v>43350</v>
+        <v>43465</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>42339</v>
+        <v>43398</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>42902</v>
+        <v>43350</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>43252</v>
+        <v>43350</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>42389</v>
+        <v>43252</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>42653</v>
+        <v>43132</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>43350</v>
+        <v>42902</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>42444</v>
+        <v>42653</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -703,10 +700,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>42389</v>
+        <v>42444</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -717,49 +714,52 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>43465</v>
+        <v>42389</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>43999</v>
+        <v>42389</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>43753</v>
+        <v>42339</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E4">
-    <sortCondition descending="1" ref="B5:B4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+    <sortCondition descending="1" ref="B1:B17"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
